--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426254.92711304</v>
+        <v>3426254.927113046</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177592</v>
+        <v>3940022.790763347</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177592</v>
+        <v>3940022.790763347</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494146826.703394</v>
+        <v>56586889.23296177</v>
       </c>
     </row>
   </sheetData>
@@ -673,13 +673,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E2" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V5" t="n">
-        <v>628.4626798738476</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W5" t="n">
         <v>638.3734759809475</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G11" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1551,43 +1551,43 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1666,7 +1666,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1773,64 +1773,64 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2025,43 +2025,43 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963200988</v>
+        <v>346.4706963201402</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2274,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U26" t="n">
-        <v>647.3630829089011</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
         <v>629.8510241668239</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2718,61 +2718,61 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>404.3632896066977</v>
       </c>
       <c r="F29" t="n">
-        <v>403.5012844169166</v>
+        <v>404.8896287078409</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054528454</v>
+        <v>397.8840054526744</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129042</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>361.0088210684835</v>
       </c>
       <c r="T29" t="n">
         <v>560.96491841181</v>
@@ -2857,7 +2857,7 @@
         <v>648.7514272017061</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241666529</v>
+        <v>628.4626798760688</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759807766</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822409686</v>
+        <v>350.627682241806</v>
       </c>
       <c r="S30" t="n">
         <v>408.192915058951</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D32" t="n">
-        <v>408.9508114468735</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
         <v>404.3632896068686</v>
@@ -3100,7 +3100,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X32" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y32" t="n">
         <v>511.3174326828064</v>
@@ -3164,7 +3164,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
-        <v>647.3630829089011</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V35" t="n">
         <v>629.8510241668239</v>
@@ -3337,7 +3337,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -3447,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y38" t="n">
         <v>511.3174326828064</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339500177</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3921,25 +3921,25 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
         <v>492.3327682960356</v>
@@ -4333,55 +4333,55 @@
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396619</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337363</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4479,40 +4479,40 @@
         <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>258.7889042114131</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>258.7889042114131</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>258.7889042114131</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>258.7889042114131</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>258.7889042114131</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>409.2181261040298</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4579,46 +4579,46 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>2936.062862426065</v>
+        <v>2748.266680678617</v>
       </c>
       <c r="M5" t="n">
-        <v>3418.242061939568</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N5" t="n">
-        <v>3983.28512581224</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O5" t="n">
-        <v>4893.440008752984</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,40 +4707,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>373.1514491892474</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
         <v>457.4949902104935</v>
@@ -4758,25 +4758,25 @@
         <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4813,49 +4813,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2018.470139109482</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>2936.062862426065</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M8" t="n">
-        <v>3418.242061939568</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N8" t="n">
-        <v>3983.28512581224</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O8" t="n">
-        <v>4893.440008752984</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P8" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4944,37 +4944,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -4995,25 +4995,25 @@
         <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,52 +5047,52 @@
         <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K11" t="n">
-        <v>1830.673957362036</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L11" t="n">
-        <v>2748.266680678619</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M11" t="n">
-        <v>4280.114215286951</v>
+        <v>4214.862236188701</v>
       </c>
       <c r="N11" t="n">
-        <v>4845.157279159623</v>
+        <v>4779.905300061373</v>
       </c>
       <c r="O11" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5208,49 +5208,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5281,55 +5281,55 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>3585.390275303557</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>4067.56947481706</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N14" t="n">
-        <v>4632.612538689732</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>5542.767421630476</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P14" t="n">
-        <v>6378.634749727889</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
         <v>140.96</v>
@@ -5445,49 +5445,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5521,52 +5521,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L17" t="n">
-        <v>3797.935015773448</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M17" t="n">
-        <v>4280.114215286951</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N17" t="n">
-        <v>4845.157279159623</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5682,49 +5682,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546172</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048198</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.26062635138</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071715</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342871</v>
+        <v>892.833436134329</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233322</v>
+        <v>490.930400323374</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N20" t="n">
-        <v>4465.52036104992</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O20" t="n">
-        <v>5375.675243990664</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P20" t="n">
-        <v>6211.542572088078</v>
+        <v>6474.295852434818</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.11636223704</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000002</v>
+        <v>7048.000000000043</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.34462518322</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464047</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.40892254296</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818895</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908847</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665748</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.62734043059</v>
       </c>
     </row>
     <row r="21">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5919,49 +5919,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342872</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,52 +5995,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>1091.030813794195</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1830.673957362034</v>
       </c>
       <c r="L23" t="n">
-        <v>3159.388586083262</v>
+        <v>2748.266680678617</v>
       </c>
       <c r="M23" t="n">
-        <v>3641.567785596765</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N23" t="n">
-        <v>4206.610849469437</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O23" t="n">
-        <v>5116.765732410181</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6156,49 +6156,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6232,52 +6232,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L26" t="n">
-        <v>3188.24146323657</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M26" t="n">
-        <v>3670.420662750073</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N26" t="n">
-        <v>4235.463726622745</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O26" t="n">
-        <v>5145.618609563488</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P26" t="n">
-        <v>5981.485937660902</v>
+        <v>6175.514118919006</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6393,49 +6393,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547339</v>
+        <v>2580.161715517797</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049538</v>
+        <v>2126.146990019996</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352893</v>
+        <v>1711.662994323351</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.8128590734</v>
+        <v>1303.215227043858</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041068178</v>
+        <v>894.235804106645</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958629</v>
+        <v>492.3327682958628</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6472,49 +6472,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1830.673957362036</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2748.266680678619</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M29" t="n">
-        <v>4280.114215286951</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N29" t="n">
-        <v>4845.157279159623</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100367</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.17949019778</v>
+        <v>5877.044763467824</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048.000000000002</v>
+        <v>6943.558825806924</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.34462518335</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464179</v>
+        <v>6116.71339446435</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543264</v>
+        <v>5461.408922543435</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819372</v>
+        <v>4826.59813478983</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909496</v>
+        <v>4181.776441879954</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.10959566657</v>
+        <v>3583.511963637028</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431585</v>
+        <v>3067.029708402043</v>
       </c>
     </row>
     <row r="30">
@@ -6551,25 +6551,25 @@
         <v>558.847529515091</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213248</v>
+        <v>1250.415257213417</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374486</v>
+        <v>2197.270784374824</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117515</v>
+        <v>3071.633876117853</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215649</v>
+        <v>4014.060204216157</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182556</v>
+        <v>4993.313206183064</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369044</v>
+        <v>5699.92677536972</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250224</v>
+        <v>5925.707874251069</v>
       </c>
       <c r="R30" t="n">
         <v>5571.538498249245</v>
@@ -6603,19 +6603,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893197</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893197</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
         <v>1711.662994324041</v>
@@ -6703,55 +6703,55 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>821.2992300042777</v>
       </c>
       <c r="K32" t="n">
-        <v>1901.586501346479</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L32" t="n">
-        <v>2819.179224663062</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M32" t="n">
-        <v>3301.358424176565</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N32" t="n">
-        <v>3866.401488049237</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O32" t="n">
-        <v>4776.556370989981</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6812,16 +6812,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W33" t="n">
         <v>3503.082427021609</v>
@@ -6867,43 +6867,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
         <v>140.96</v>
@@ -6940,49 +6940,49 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M35" t="n">
-        <v>2814.780508913348</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N35" t="n">
-        <v>3379.82357278602</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.978455726764</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P35" t="n">
-        <v>5987.71793717156</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
         <v>3583.51196363841</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7104,49 +7104,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342872</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7180,52 +7180,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>2153.765102156984</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
-        <v>3071.357825473567</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M38" t="n">
-        <v>3553.537024987069</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N38" t="n">
-        <v>4118.580088859741</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O38" t="n">
-        <v>5028.734971800485</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897899</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7341,49 +7341,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
         <v>492.3327682960356</v>
@@ -7414,55 +7414,55 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1830.673957362036</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>2748.266680678619</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>4280.114215286951</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N41" t="n">
-        <v>4845.157279159623</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O41" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7578,49 +7578,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342872</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>1901.586501346479</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>2819.179224663062</v>
+        <v>2936.062862426063</v>
       </c>
       <c r="M44" t="n">
-        <v>3301.358424176565</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N44" t="n">
-        <v>3866.401488049237</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O44" t="n">
-        <v>4776.556370989981</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7815,37 +7815,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
         <v>140.96</v>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>940.6347988651446</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>609.5571242689095</v>
+        <v>419.8640113926992</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>609.5571242689098</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>870.5779326741233</v>
+        <v>301.7997308240085</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,10 +8695,10 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>496.2158265843884</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>65.91108999823007</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>835.1386633165835</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,13 +8947,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.6916570402939</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
         <v>176.4768357656695</v>
@@ -9169,16 +9169,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>332.9552028337775</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>763.2599394199325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>341.7591690772833</v>
       </c>
       <c r="Q20" t="n">
-        <v>265.407353885555</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9643,16 +9643,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>419.8640113926995</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>835.1386633165835</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>644.9963936264498</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>433.9782470873033</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>496.2158265843884</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10138,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>281.9729713142314</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>223.7596813420461</v>
       </c>
       <c r="K32" t="n">
-        <v>61.18810711406331</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>603.2839282494454</v>
       </c>
       <c r="Q35" t="n">
-        <v>609.5571242689093</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>315.9139665186131</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>147.4078661503585</v>
       </c>
       <c r="Q38" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>419.8640113927013</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>496.2158265843859</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>491.49284370022</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>685.9089394605949</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23278,10 +23278,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23475,7 +23475,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C16" t="n">
-        <v>107.5124581046182</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D16" t="n">
         <v>285.5362180555555</v>
@@ -23718,7 +23718,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23949,7 +23949,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U19" t="n">
         <v>150.8146863564251</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292976399</v>
+        <v>1.38834429293496</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24162,10 +24162,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>168.0209277307011</v>
@@ -24174,7 +24174,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
-        <v>368.8061924102448</v>
+        <v>343.0969549025573</v>
       </c>
       <c r="Q22" t="n">
         <v>505.228266425598</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24390,7 +24390,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>130.9590368616381</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W25" t="n">
         <v>226.3728098387097</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.38834429297583</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121.9010117936522</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C28" t="n">
         <v>272.7252466480447</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.388344291095279</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.388344290584087</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699957070951</v>
+        <v>1.53369995623359</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G31" t="n">
-        <v>77.19649413416917</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
         <v>205.3472244622743</v>
@@ -24900,13 +24900,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.388344292976228</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24988,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R34" t="n">
-        <v>608.1413738827905</v>
+        <v>593.7432716957892</v>
       </c>
       <c r="S34" t="n">
         <v>316.45975839138</v>
@@ -25137,7 +25137,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25146,7 +25146,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X34" t="n">
-        <v>82.23085688668112</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
         <v>287.4653528494624</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.38834429297583</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25362,7 +25362,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q37" t="n">
-        <v>505.228266425598</v>
+        <v>340.0154778821716</v>
       </c>
       <c r="R37" t="n">
         <v>608.1413738827905</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25584,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>168.0209277307011</v>
@@ -25599,7 +25599,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q40" t="n">
-        <v>505.228266425598</v>
+        <v>479.5190289179105</v>
       </c>
       <c r="R40" t="n">
         <v>608.1413738827905</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25827,7 +25827,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.95752167278977</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15096.00000993378</v>
+        <v>1240465.351388876</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30103.2164501875</v>
+        <v>2468357.965713155</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45110.43289044122</v>
+        <v>3696250.580037436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62191.16103297014</v>
+        <v>4796092.453661889</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79271.88917549908</v>
+        <v>5895934.327286341</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96352.617318028</v>
+        <v>6995776.200910786</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113433.3454605569</v>
+        <v>8095618.074535234</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130514.0736030859</v>
+        <v>9195459.948159678</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147594.8017456148</v>
+        <v>10295301.82178412</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164675.5298881429</v>
+        <v>11395143.69540881</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181756.2580306718</v>
+        <v>12494985.56903325</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198836.9861732008</v>
+        <v>13594827.4426577</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215917.7143157299</v>
+        <v>14694669.31628216</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232998.442458259</v>
+        <v>15794511.18990663</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250079.1706007881</v>
+        <v>16894353.06353109</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.206257761</v>
+        <v>976017.2062577609</v>
       </c>
       <c r="C2" t="n">
         <v>976017.2062577608</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577609</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="E2" t="n">
+        <v>874233.2841630245</v>
+      </c>
+      <c r="F2" t="n">
+        <v>874233.2841630245</v>
+      </c>
+      <c r="G2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="H2" t="n">
+        <v>874233.2841630273</v>
+      </c>
+      <c r="I2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="G2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="H2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>874233.2841632164</v>
+      </c>
+      <c r="L2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>874233.2841630246</v>
+      </c>
+      <c r="N2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="K2" t="n">
-        <v>874233.2841631576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.2841630252</v>
-      </c>
-      <c r="M2" t="n">
-        <v>874233.284163025</v>
-      </c>
-      <c r="N2" t="n">
-        <v>874233.2841630249</v>
-      </c>
       <c r="O2" t="n">
+        <v>874233.2841630246</v>
+      </c>
+      <c r="P2" t="n">
         <v>874233.2841630247</v>
-      </c>
-      <c r="P2" t="n">
-        <v>874233.2841630249</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000001</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163514</v>
+        <v>89075.80382163523</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715398</v>
+        <v>88773.85276715407</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722098</v>
+        <v>88471.49209722107</v>
       </c>
       <c r="E4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="G4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850319</v>
       </c>
       <c r="I4" t="n">
         <v>13783.46259850302</v>
@@ -26450,22 +26450,22 @@
         <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259859773</v>
+        <v>13783.46259864033</v>
       </c>
       <c r="L4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850303</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
     </row>
     <row r="5">
@@ -26530,46 +26530,46 @@
         <v>-1330364.597563874</v>
       </c>
       <c r="C6" t="n">
-        <v>714636.3534906068</v>
+        <v>714636.3534906066</v>
       </c>
       <c r="D6" t="n">
-        <v>714938.7141605399</v>
+        <v>714938.7141605394</v>
       </c>
       <c r="E6" t="n">
+        <v>721470.4215645215</v>
+      </c>
+      <c r="F6" t="n">
+        <v>721470.4215645215</v>
+      </c>
+      <c r="G6" t="n">
+        <v>721470.4215645217</v>
+      </c>
+      <c r="H6" t="n">
+        <v>721470.4215645241</v>
+      </c>
+      <c r="I6" t="n">
         <v>721470.4215645219</v>
       </c>
-      <c r="F6" t="n">
-        <v>721470.4215645219</v>
-      </c>
-      <c r="G6" t="n">
-        <v>721470.4215645219</v>
-      </c>
-      <c r="H6" t="n">
-        <v>721470.4215645219</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>101246.4215645219</v>
+      </c>
+      <c r="K6" t="n">
+        <v>721470.421564576</v>
+      </c>
+      <c r="L6" t="n">
         <v>721470.4215645217</v>
       </c>
-      <c r="J6" t="n">
-        <v>101246.4215645216</v>
-      </c>
-      <c r="K6" t="n">
-        <v>721470.4215645598</v>
-      </c>
-      <c r="L6" t="n">
-        <v>721470.4215645222</v>
-      </c>
       <c r="M6" t="n">
-        <v>721470.421564522</v>
+        <v>721470.4215645216</v>
       </c>
       <c r="N6" t="n">
-        <v>721470.4215645219</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="O6" t="n">
+        <v>721470.4215645216</v>
+      </c>
+      <c r="P6" t="n">
         <v>721470.4215645217</v>
-      </c>
-      <c r="P6" t="n">
-        <v>721470.4215645219</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E4" t="n">
-        <v>400</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F4" t="n">
         <v>274.3828559677419</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9521332281850334</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116847</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27805,7 +27805,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>67.62479437236371</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27939,7 +27939,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
@@ -27954,7 +27954,7 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
         <v>198.7676812603561</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -28191,10 +28191,10 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T10" t="n">
-        <v>266.3924756327198</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U10" t="n">
         <v>150.8146863564251</v>
@@ -29653,10 +29653,10 @@
         <v>1.709850039333106e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="H29" t="n">
         <v>1.709850039333106e-10</v>
@@ -29692,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="T29" t="n">
         <v>1.709850039333106e-10</v>
@@ -29747,25 +29747,25 @@
         <v>1.709850039333106e-10</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="M30" t="n">
         <v>1.709850039333106e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="O30" t="n">
         <v>1.709850039333106e-10</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34825,22 +34825,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1141.752258948505</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1511.3853684335</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -34849,10 +34849,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34971,7 +34971,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>119.0190951630435</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>151.9487089824412</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35071,10 +35071,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1536.418460952327</v>
+        <v>1346.725348076116</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35083,7 +35083,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
@@ -35226,7 +35226,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>85.19549598105667</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35250,7 +35250,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -35305,13 +35305,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1356.67141070107</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
@@ -35320,13 +35320,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1714.888365095753</v>
+        <v>1146.110163245639</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35487,10 +35487,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.62479437236368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -35539,13 +35539,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1243.330113016549</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>1547.320742028618</v>
@@ -35554,7 +35554,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>985.2594566050421</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,13 +35791,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>989.4052327978328</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
-        <v>676.1265154263763</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36013,16 +36013,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
-        <v>1259.816539517195</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
-        <v>487.0496964782857</v>
+        <v>1250.309635898218</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36247,16 +36247,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36268,10 +36268,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1186.069601498913</v>
       </c>
       <c r="Q20" t="n">
-        <v>726.8422122716374</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36487,16 +36487,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>883.3156734893178</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L23" t="n">
-        <v>1762</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36505,7 +36505,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1489.30682604808</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36724,16 +36724,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1360.83958377072</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36745,10 +36745,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>763.2345892100915</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36964,13 +36964,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1243.330113016549</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -36982,10 +36982,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>105.4961355485618</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37043,25 +37043,25 @@
         <v>422.108615671809</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603011687</v>
+        <v>698.5532603013397</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244052909</v>
+        <v>956.4197244054619</v>
       </c>
       <c r="M30" t="n">
         <v>883.1950421646752</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859577115</v>
+        <v>951.9457859578824</v>
       </c>
       <c r="O30" t="n">
         <v>989.1444464312193</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799863513</v>
+        <v>713.7510799865223</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160415959</v>
+        <v>228.0617160417669</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37195,16 +37195,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>687.2113434386642</v>
       </c>
       <c r="K32" t="n">
-        <v>808.302393546224</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,13 +37216,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,16 +37432,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37453,13 +37453,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>1447.594360671075</v>
       </c>
       <c r="Q35" t="n">
-        <v>1070.991982654991</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37672,10 +37672,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1063.028252950774</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
         <v>926.861336683417</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>991.7182985719886</v>
       </c>
       <c r="Q38" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,22 +37906,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1166.978297824862</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>1547.320742028618</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>1066.966396152742</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
@@ -38143,16 +38143,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1238.607130132381</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834172</v>
+        <v>1612.770276144012</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
